--- a/Aufgaben/Befehlliste.xlsx
+++ b/Aufgaben/Befehlliste.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4274428-718E-41FF-B1C9-C1A32917B76E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B86A18D-7BCA-4FEE-81E0-50750D99DA50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Add.object</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+  <si>
+    <t>this.addObject(new Rover(),3,5);</t>
+  </si>
+  <si>
+    <t>Erstellt nuen Rover an position 3|5</t>
+  </si>
+  <si>
+    <t>fahre();</t>
+  </si>
+  <si>
+    <t>fahren(x);</t>
+  </si>
+  <si>
+    <t>rover fährt eine position nach vorne</t>
+  </si>
+  <si>
+    <t>rover fährt x positionen nach vorne</t>
+  </si>
+  <si>
+    <t>drehe("rechts"/"links");</t>
+  </si>
+  <si>
+    <t>dreht 90 grad nach rechts oder links</t>
+  </si>
+  <si>
+    <t>gesteinVorhanden();</t>
+  </si>
+  <si>
+    <t>check ob an der aktuellen position der rovers ein gestein ist.</t>
   </si>
 </sst>
 </file>
@@ -340,20 +367,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
